--- a/config/_TableConfig/!beans__.xlsx
+++ b/config/_TableConfig/!beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17720"/>
+    <workbookView windowWidth="26490" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <t>奇物信息</t>
   </si>
   <si>
-    <t>GameCombat.SquadStance</t>
+    <t>Combat.SquadStance</t>
   </si>
   <si>
     <t>战队队形</t>
@@ -1364,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
